--- a/DataRepo/data/tests/small_multitracer/study.xlsx
+++ b/DataRepo/data/tests/small_multitracer/study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_multitracer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233FB51-47EF-2C45-A478-EB7053A65801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCB9AE3-293F-DB41-BA11-E64425DABB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="33200" windowHeight="26840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="33200" windowHeight="26840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
@@ -244,8 +244,17 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Name of the sample, must match the sample name in AccuCor file
-	-Lance Parsons</t>
+          <t xml:space="preserve">Name of the sample, must match the sample name in AccuCor file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -316,8 +325,17 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -409,9 +427,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
-    <t>Animal ID</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -463,9 +478,6 @@
     <t>ob/ob Fasted</t>
   </si>
   <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
     <t>Date Collected</t>
   </si>
   <si>
@@ -482,9 +494,6 @@
   </si>
   <si>
     <t>brown_adipose_tissue</t>
-  </si>
-  <si>
-    <t>150</t>
   </si>
   <si>
     <t>brain</t>
@@ -701,6 +710,15 @@
   </si>
   <si>
     <t>Study</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH949"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1205,37 +1223,37 @@
   <sheetData>
     <row r="1" spans="1:1022" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AMF1"/>
       <c r="AMG1"/>
@@ -1243,72 +1261,72 @@
     </row>
     <row r="2" spans="1:1022" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>49</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1022" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>26.3</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>0.114</v>
       </c>
       <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1022" ht="14" x14ac:dyDescent="0.15">
@@ -5116,9 +5134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD284"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5141,22 +5159,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -5175,22 +5193,22 @@
     </row>
     <row r="2" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7">
         <v>44316</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -5205,22 +5223,22 @@
     </row>
     <row r="3" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>44316</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -5235,22 +5253,22 @@
     </row>
     <row r="4" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="9">
         <v>44154</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -5279,22 +5297,22 @@
     </row>
     <row r="5" spans="1:30" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="9">
         <v>44154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -10428,10 +10446,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -10460,10 +10478,10 @@
     </row>
     <row r="2" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -10491,10 +10509,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -10522,295 +10540,295 @@
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
